--- a/biology/Botanique/Acmenosperma/Acmenosperma.xlsx
+++ b/biology/Botanique/Acmenosperma/Acmenosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acmenosperma est un genre de plantes de la famille des Myrtaceae. Ce genre est probablement invalide. Il était considéré comme proche du genre Syzygium. De fait, des travaux[1] en 2006 ont montré que ses espèces devaient bel et bien être classées dans le genre Syzygium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acmenosperma est un genre de plantes de la famille des Myrtaceae. Ce genre est probablement invalide. Il était considéré comme proche du genre Syzygium. De fait, des travaux en 2006 ont montré que ses espèces devaient bel et bien être classées dans le genre Syzygium.
 Aussi le genre Acmenosperma est-il probablement synonyme au genre Syzygium.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Listes des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre n'a jamais contenu que deux espèces :
 Pour Acmenosperma claviflorum (Roxb.) Kausel, voir Syzygium claviflorum (Roxb.) Wall. ex A.M.Cowan &amp; Cowan
